--- a/test-cases.xlsx
+++ b/test-cases.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://publicisgroupe-my.sharepoint.com/personal/pavkumar4_publicisgroupe_net/Documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{6D532083-B29B-4A49-AA19-CFFC904F241B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5C912321-7145-4CDD-96F3-0839BE76C03E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,209 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="65">
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Scenarios/ Test cases</t>
+  </si>
+  <si>
+    <t>Signin Page:</t>
+  </si>
+  <si>
+    <t>Header with logo on left and cart image and sign in &amp; register text on right</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Content area</t>
+  </si>
+  <si>
+    <t>Login text to the left and Form to the right</t>
+  </si>
+  <si>
+    <t>In mobile version menu options should be hidden only logo and cart should be visible</t>
+  </si>
+  <si>
+    <t>In mobile version it should be placed one below the other</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Footer need to be placed just below the content area</t>
+  </si>
+  <si>
+    <t>Click on menu items</t>
+  </si>
+  <si>
+    <t>Click on cart</t>
+  </si>
+  <si>
+    <t>As user not logged in, it should show empty cart page in a modal view</t>
+  </si>
+  <si>
+    <t>In mobile version separate view/page has to be opened for cart to show the details</t>
+  </si>
+  <si>
+    <t>should navigate to respective pages (Home, Products, Signin, Register)</t>
+  </si>
+  <si>
+    <t>Signup Page:</t>
+  </si>
+  <si>
+    <t>Validations</t>
+  </si>
+  <si>
+    <t>Without entering email address and password user should not login and it should show message to user</t>
+  </si>
+  <si>
+    <t>Email validation should be in proper valid format and passwod length &gt;= 6</t>
+  </si>
+  <si>
+    <t>Signup successfully if from is submitted with valid details</t>
+  </si>
+  <si>
+    <t>Signin successfully if from is submitted with valid details</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>All input fields(first name, last name, email, password &amp; confirm password) are mandatory and respective error toast message will be shown once clicked on sign up, if form is invalid</t>
+  </si>
+  <si>
+    <t>Home Page:</t>
+  </si>
+  <si>
+    <t>Footer need to be placed just below the content area at bottom</t>
+  </si>
+  <si>
+    <t>Slider should be presented as first section in home page where all offers should be placed.</t>
+  </si>
+  <si>
+    <t>Slider should show left and right arrows for navigaton of images</t>
+  </si>
+  <si>
+    <t>Slider need to show dots to represent number of slides available</t>
+  </si>
+  <si>
+    <t>In mobile version, navigation arrows should be hidden and slider image should be able to change with swipe action of finger towards left and right.</t>
+  </si>
+  <si>
+    <t>Categories should be listed just below the slider with with alternative image and content area for each category. (i.e., for example in one section if the category image is to the left then its respective description should be on right side &amp; reverse should happen for every next section of category view)</t>
+  </si>
+  <si>
+    <t>On category description area a button should be shown like 'Explore {Category Name}' , on click of it should navigate to respective category PLP page where it should be seleted and product list should be filtered with selected category.</t>
+  </si>
+  <si>
+    <t>PLP Page:</t>
+  </si>
+  <si>
+    <t>Item Count should be visible next to cart image if user is Logged in/ Registered, Else 0 items should be shown</t>
+  </si>
+  <si>
+    <t>On click of Sign In/ Register cart items should be cleared and navigate to respective page with 0 items in cart</t>
+  </si>
+  <si>
+    <t>Click on Header menu items</t>
+  </si>
+  <si>
+    <t>In  PLP page it should be listed to the left side with listed names one below the other</t>
+  </si>
+  <si>
+    <t>In mobile version, List should turn into dropdown where user can select respective category</t>
+  </si>
+  <si>
+    <t>Category List</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Products should be placed on the right side of the page</t>
+  </si>
+  <si>
+    <t>It should be responsive as per screen width, If width reduces it should shrink from 4 items in a row to 1 item in a row</t>
+  </si>
+  <si>
+    <t>In 4 item row top is title, below to it is image, below to it is 3 line description &amp; below to it is m.r.p with buy now button at either side of item</t>
+  </si>
+  <si>
+    <t>For a 3/2 item row top is tile, below is image and descirpiton in same line, below to it is single button with 'Buy now @ {PRICE}' occupying entire width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For mobile screen, it should be only 1 item in a row with title at the top, in section below left side is image (50%) and to the right(50%) we see description with grey background and button to buy 'Buy now @ {Price}' just below it. </t>
+  </si>
+  <si>
+    <t>Click on buy now button should increase the cart count value and if same item clicked twice it should show as 2 items, Basically count increases irrespective of item we click on. The number of times we click on 'Buy now' button cart count should increase by +1.</t>
+  </si>
+  <si>
+    <t>Slider for offers</t>
+  </si>
+  <si>
+    <t>Section for category listing with image and description</t>
+  </si>
+  <si>
+    <t>Modal View</t>
+  </si>
+  <si>
+    <t>On click of cart a modal should open where header with heading as 'My Cart ({Number of items in cart} items)' if items available else only show heading as 'My Cart'</t>
+  </si>
+  <si>
+    <t>In Mobile version, new page/view will open where heading won't be present</t>
+  </si>
+  <si>
+    <t>Number of items in cart lists one below the other were in a tile image placed In extreme left and total price og item at extreme right &amp; in the middle of the tile we see the name and quantity under name, providing user to either increase or decrease quantity with 'X {price}' next to it.</t>
+  </si>
+  <si>
+    <t>When user click on '-' item quantity should decresae by -1 and when It reaches 0 then item should be removed from cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When user click on '+' item quantity should increase by +1 </t>
+  </si>
+  <si>
+    <t>On clicking of either '-' or '+' buttons the total price should be calculated automatically and it should also reflect in checkout button area</t>
+  </si>
+  <si>
+    <t>Promo text will be shown at last after showing all the items in cart.</t>
+  </si>
+  <si>
+    <t>Promo applied text will be shown along with 'Proceed to checkout' button under it</t>
+  </si>
+  <si>
+    <t>On Click of 'Proceed to checkout' button' modal should close and show message as 'Order placed successfully, Cart is emptied'</t>
+  </si>
+  <si>
+    <t>If there are no items in cart then footer button should be 'Start Shopping' where on click of it it should close the modal</t>
+  </si>
+  <si>
+    <t>In Mobile view 'Start shopping' button navigates to '/home' page</t>
+  </si>
+  <si>
+    <t>Cart View/ Page:</t>
+  </si>
+  <si>
+    <t>If page in url is not matching with route a default page is allocated to show</t>
+  </si>
+  <si>
+    <t>On click of link like 'Click here to go to home page' it should navigate to home page view</t>
+  </si>
+  <si>
+    <t>Page not found</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +234,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +289,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +594,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="8"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="11"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="8"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010098902ABEC4CC014BB4E9044BFA4F68E4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1c0c4da33780550cdf67eea59ecd5f6e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="61fcd5ed-469d-48d3-99cd-73bfd2101e47" xmlns:ns4="fc5d56fb-2159-4bc9-bec7-30b49e60511f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efc4c46a52323b0eed83e52ba30cc26d" ns3:_="" ns4:_="">
+    <xsd:import namespace="61fcd5ed-469d-48d3-99cd-73bfd2101e47"/>
+    <xsd:import namespace="fc5d56fb-2159-4bc9-bec7-30b49e60511f"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="61fcd5ed-469d-48d3-99cd-73bfd2101e47" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fc5d56fb-2159-4bc9-bec7-30b49e60511f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9FCDE2-2BE3-4171-A06B-3D2982B3D65D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="61fcd5ed-469d-48d3-99cd-73bfd2101e47"/>
+    <ds:schemaRef ds:uri="fc5d56fb-2159-4bc9-bec7-30b49e60511f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FFEEFA5-70FA-4268-9446-EC6EBB1B0655}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8B6E31-2D91-4B2C-B228-0570B05B6155}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fc5d56fb-2159-4bc9-bec7-30b49e60511f"/>
+    <ds:schemaRef ds:uri="61fcd5ed-469d-48d3-99cd-73bfd2101e47"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>